--- a/nnTestParms.xlsx
+++ b/nnTestParms.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costa\Documents\Repos\NN_images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81785A6-AD7E-41B5-BE04-4D84465F3E8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -67,32 +76,35 @@
     <t>trainscg</t>
   </si>
   <si>
-    <t>trainbfg</t>
-  </si>
-  <si>
-    <t>trainlm</t>
+    <t>trainoss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,57 +112,361 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -194,15 +510,15 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -216,7 +532,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="5">
         <v>0.01</v>
@@ -228,15 +544,15 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -250,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L3" s="5">
         <v>0.01</v>
@@ -262,15 +578,15 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -284,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L4" s="5">
         <v>0.01</v>
@@ -296,15 +612,15 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -318,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="5">
         <v>0.01</v>
@@ -330,15 +646,15 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -352,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L6" s="5">
         <v>0.01</v>
@@ -364,15 +680,15 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -386,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L7" s="5">
         <v>0.01</v>
@@ -398,15 +714,15 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -420,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="5">
         <v>0.01</v>
@@ -432,15 +748,15 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -454,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L9" s="5">
         <v>0.01</v>
@@ -466,15 +782,15 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -488,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L10" s="5">
         <v>0.01</v>
@@ -500,15 +816,15 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -518,11 +834,11 @@
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="5">
         <v>0.01</v>
@@ -534,15 +850,15 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -552,11 +868,11 @@
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L12" s="5">
         <v>0.01</v>
@@ -568,15 +884,15 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -586,11 +902,11 @@
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L13" s="5">
         <v>0.01</v>
@@ -602,15 +918,15 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>10.0</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -621,10 +937,10 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="5">
         <v>0.01</v>
@@ -636,15 +952,15 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5">
-        <v>10.0</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -655,10 +971,10 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K15" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L15" s="5">
         <v>0.01</v>
@@ -670,15 +986,15 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5">
-        <v>10.0</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -689,10 +1005,10 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K16" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L16" s="5">
         <v>0.01</v>
@@ -704,15 +1020,15 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -723,10 +1039,10 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="5">
         <v>0.01</v>
@@ -738,15 +1054,15 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -757,10 +1073,10 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K18" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L18" s="5">
         <v>0.01</v>
@@ -772,15 +1088,15 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -791,10 +1107,10 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L19" s="5">
         <v>0.01</v>
@@ -806,15 +1122,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4">
-        <v>35.0</v>
+      <c r="C20" s="5">
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -825,10 +1141,10 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="5">
         <v>0.01</v>
@@ -840,15 +1156,15 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -859,10 +1175,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K21" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L21" s="5">
         <v>0.01</v>
@@ -874,15 +1190,15 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
@@ -893,10 +1209,10 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L22" s="5">
         <v>0.01</v>
@@ -908,15 +1224,15 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
@@ -926,11 +1242,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
-        <v>17</v>
+      <c r="J23" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K23" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="5">
         <v>0.01</v>
@@ -942,15 +1258,15 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
@@ -960,11 +1276,11 @@
       <c r="G24" s="3"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>17</v>
+      <c r="J24" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K24" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L24" s="5">
         <v>0.01</v>
@@ -976,15 +1292,15 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
@@ -994,11 +1310,11 @@
       <c r="G25" s="3"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>17</v>
+      <c r="J25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K25" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L25" s="5">
         <v>0.01</v>
@@ -1010,213 +1326,93 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.7</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="4">
-        <v>2500.0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0.7</v>
+        <v>26</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="4">
-        <v>5000.0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0.7</v>
+        <v>27</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="4">
-        <v>2500.0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="4">
-        <v>5000.0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1224,9 +1420,9 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1234,9 +1430,9 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1244,9 +1440,9 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1264,9 +1460,9 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1284,9 +1480,9 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1304,9 +1500,9 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1324,9 +1520,9 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1344,9 +1540,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1364,21 +1560,21 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
@@ -1388,7 +1584,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1396,21 +1592,21 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
@@ -1420,7 +1616,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1428,21 +1624,21 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
@@ -1452,7 +1648,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1460,21 +1656,21 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -1484,7 +1680,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1492,21 +1688,21 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -1516,7 +1712,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1524,21 +1720,21 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -1548,7 +1744,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1556,9 +1752,9 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1576,9 +1772,9 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1596,9 +1792,9 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1616,9 +1812,9 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1636,9 +1832,9 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1656,9 +1852,9 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1676,9 +1872,9 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1696,9 +1892,9 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1716,9 +1912,9 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1736,9 +1932,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1756,9 +1952,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1776,9 +1972,9 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1796,9 +1992,9 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1816,9 +2012,9 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1836,9 +2032,9 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1856,9 +2052,9 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1876,9 +2072,9 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1896,9 +2092,9 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1916,9 +2112,9 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1936,9 +2132,9 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1956,9 +2152,9 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1976,9 +2172,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1996,9 +2192,9 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2016,9 +2212,9 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2036,9 +2232,9 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2056,9 +2252,9 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2076,9 +2272,9 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2096,9 +2292,9 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2116,9 +2312,9 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2136,9 +2332,9 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2156,9 +2352,9 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2176,9 +2372,9 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2196,9 +2392,9 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2216,9 +2412,9 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2236,9 +2432,9 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2256,9 +2452,9 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2276,9 +2472,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2296,9 +2492,9 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2316,9 +2512,9 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2336,9 +2532,9 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2356,9 +2552,9 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2376,9 +2572,9 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2396,9 +2592,9 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2416,9 +2612,9 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2436,9 +2632,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2456,9 +2652,9 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2476,9 +2672,9 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2496,9 +2692,9 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2516,9 +2712,9 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2536,9 +2732,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2556,9 +2752,9 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2576,9 +2772,9 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2596,9 +2792,9 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2616,9 +2812,9 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2636,9 +2832,9 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2656,9 +2852,9 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2676,9 +2872,9 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2696,9 +2892,9 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2716,9 +2912,9 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2736,9 +2932,9 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2756,9 +2952,9 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2776,9 +2972,9 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2796,9 +2992,9 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2816,9 +3012,9 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2836,9 +3032,9 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2856,9 +3052,9 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2876,9 +3072,9 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2896,9 +3092,9 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2916,9 +3112,9 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2936,9 +3132,9 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2956,9 +3152,9 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2976,9 +3172,9 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2996,9 +3192,9 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3016,9 +3212,9 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3036,9 +3232,9 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3056,9 +3252,9 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3076,9 +3272,9 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3096,9 +3292,9 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3116,9 +3312,9 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3136,9 +3332,9 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3156,9 +3352,9 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3176,9 +3372,9 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3196,9 +3392,9 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3216,9 +3412,9 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3236,9 +3432,9 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3256,9 +3452,9 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3276,9 +3472,9 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3296,9 +3492,9 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3316,9 +3512,9 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3336,9 +3532,9 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3356,9 +3552,9 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3376,9 +3572,9 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3396,9 +3592,9 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3416,9 +3612,9 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3436,9 +3632,9 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3456,9 +3652,9 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3476,9 +3672,9 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3496,9 +3692,9 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3516,9 +3712,9 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3536,9 +3732,9 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3556,9 +3752,9 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3576,9 +3772,9 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3596,9 +3792,9 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3616,9 +3812,9 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3636,9 +3832,9 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3656,9 +3852,9 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3676,9 +3872,9 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3696,9 +3892,9 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3716,9 +3912,9 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3736,9 +3932,9 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3756,9 +3952,9 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3776,9 +3972,9 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3796,9 +3992,9 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3816,9 +4012,9 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3836,9 +4032,9 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3856,9 +4052,9 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3876,9 +4072,9 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3896,9 +4092,9 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3916,9 +4112,9 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3936,9 +4132,9 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3956,9 +4152,9 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3976,9 +4172,9 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3996,9 +4192,9 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4016,9 +4212,9 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4036,9 +4232,9 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4056,9 +4252,9 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4076,9 +4272,9 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4096,9 +4292,9 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4116,9 +4312,9 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4136,9 +4332,9 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4156,9 +4352,9 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4176,9 +4372,9 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4196,9 +4392,9 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4216,9 +4412,9 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4236,9 +4432,9 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4256,9 +4452,9 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4276,9 +4472,9 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4296,9 +4492,9 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4316,9 +4512,9 @@
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4336,9 +4532,9 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4356,9 +4552,9 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4376,9 +4572,9 @@
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4396,9 +4592,9 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4416,9 +4612,9 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4436,9 +4632,9 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4456,9 +4652,9 @@
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4476,9 +4672,9 @@
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4496,9 +4692,9 @@
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4516,9 +4712,9 @@
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4536,9 +4732,9 @@
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4556,9 +4752,9 @@
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4576,9 +4772,9 @@
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4596,9 +4792,9 @@
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4616,9 +4812,9 @@
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4637,6 +4833,7 @@
       <c r="P200" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>